--- a/example/formulation_3/input/PySedSim_Input_File - Sambor_EA_formulation_3_serial.xlsx
+++ b/example/formulation_3/input/PySedSim_Input_File - Sambor_EA_formulation_3_serial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1980" windowWidth="7140" windowHeight="3585" tabRatio="848" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="4860" yWindow="2040" windowWidth="7140" windowHeight="3525" tabRatio="848" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Specifications" sheetId="54" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="342">
   <si>
     <t/>
   </si>
@@ -1463,16 +1463,28 @@
     <t>Larvae Flow Fraction Dry</t>
   </si>
   <si>
-    <t>64, 96, 170, 232, 136, 110</t>
+    <t>Dry Season Daily Bypass \n Attraction Flow (m^3/s)</t>
+  </si>
+  <si>
+    <t>Dry Season \n Daily Bypass \n Attraction Flow \n (m^3/s)</t>
+  </si>
+  <si>
+    <t>177, 147, 103</t>
+  </si>
+  <si>
+    <t>Energy, Compromise, Larvae</t>
+  </si>
+  <si>
+    <t>Sambor EA</t>
+  </si>
+  <si>
+    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
   </si>
   <si>
     <t>Serial</t>
   </si>
   <si>
-    <t>Sambor EA</t>
-  </si>
-  <si>
-    <t>Sambor EA, Bypass Channel 1, Stung_Treng, Junction 4</t>
+    <t>63, 131, 116, 267, 114, 148</t>
   </si>
 </sst>
 </file>
@@ -7029,112 +7041,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914899" y="514350"/>
-          <a:ext cx="6105525" cy="2514600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Here's how I got this:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Organized</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Robert's outputs by flow, so we see the fraction into the reservoir versus total upstream flow versus elevation.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then, I figured out the TERMINAL (max WSE) point for each flow. That is, the highest the reservoir water level  can get for a given flow. This plots that for every flow. Roberts methods differed for main stem flows above 17,086, so I simply used the trend for the highest flow values to predict the TERMINAL points for the higher flows, which quickly reach 40 masl.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Having done all of that, I then multiplied the total upstream flows by the terminal fraction, so they represent the RESERVOIR inflows, which are needed to be placed in the table here. The terminal fractions of reservoir inflow for high water levels become constant at about 46% at very high flows. (half of the water is getting into the anabranch). Is this a believable percentage? Need to check on this.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7481,7 +7387,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7559,9 +7465,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7578,7 +7482,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -7647,9 +7551,7 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7659,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="127"/>
     </row>
@@ -7875,7 +7777,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7998,8 +7900,8 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8010,7 +7912,7 @@
     <col min="4" max="5" width="11.875" style="127" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="93" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="93" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="93" customWidth="1"/>
     <col min="9" max="9" width="19.625" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" style="93" customWidth="1"/>
@@ -8052,7 +7954,7 @@
         <v>129</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -8120,7 +8022,7 @@
         <v>177</v>
       </c>
       <c r="B14" s="107">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="38.25" x14ac:dyDescent="0.2">
@@ -8185,10 +8087,10 @@
         <v>0.01</v>
       </c>
       <c r="H16" s="13">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J16" s="14">
         <v>1E-3</v>
@@ -8200,7 +8102,7 @@
         <v>20</v>
       </c>
       <c r="O16" s="13">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="127" customFormat="1" x14ac:dyDescent="0.2">
@@ -8224,10 +8126,10 @@
         <v>0.01</v>
       </c>
       <c r="H17" s="13">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J17" s="14">
         <v>1E-3</v>
@@ -8239,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="O17" s="13">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -8276,7 +8178,7 @@
         <v>20</v>
       </c>
       <c r="O18" s="13">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -8303,7 +8205,7 @@
         <v>0.03</v>
       </c>
       <c r="I19" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J19" s="111"/>
       <c r="K19" s="148" t="s">
@@ -8313,7 +8215,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -8340,7 +8242,7 @@
         <v>0.03</v>
       </c>
       <c r="I20" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="148" t="s">
@@ -8350,7 +8252,7 @@
         <v>20</v>
       </c>
       <c r="O20" s="13">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -8371,13 +8273,13 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="107">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="H21" s="13">
         <v>2000000000</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J21" s="13">
         <f>0.000000001</f>
@@ -8390,7 +8292,7 @@
         <v>20</v>
       </c>
       <c r="O21" s="13">
-        <v>50000000</v>
+        <v>2000000000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -8411,7 +8313,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8422,7 +8324,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="113"/>
     </row>
@@ -8620,7 +8522,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9370,7 +9271,7 @@
   <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9396,7 +9297,7 @@
         <v>55</v>
       </c>
       <c r="C2" s="126" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>109</v>
@@ -11469,9 +11370,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11482,7 +11381,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -11623,7 +11522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -12738,19 +12637,19 @@
         <v>300</v>
       </c>
       <c r="B7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="C7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="D7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="E7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="F7" s="177" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="H7" s="155" t="s">
         <v>301</v>
@@ -12783,7 +12682,7 @@
         <v>316</v>
       </c>
       <c r="B8" s="162" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="C8" s="162" t="s">
         <v>317</v>
@@ -12814,7 +12713,7 @@
         <v>271</v>
       </c>
       <c r="B9" s="180" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
       <c r="C9" s="180" t="s">
         <v>273</v>
@@ -13693,7 +13592,7 @@
         <v>222</v>
       </c>
       <c r="B30" s="155" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="C30" s="155" t="s">
         <v>298</v>
@@ -14662,7 +14561,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14736,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
@@ -14937,7 +14836,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14958,7 +14857,7 @@
         <v>126</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14978,8 +14877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15026,8 +14925,8 @@
       <c r="A4" s="154" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="155" t="s">
-        <v>334</v>
+      <c r="B4" s="48" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -15101,7 +15000,7 @@
         <v>147</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H8" s="156">
         <v>1E-3</v>
@@ -15138,7 +15037,7 @@
         <v>147</v>
       </c>
       <c r="G9" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H9" s="156">
         <v>1E-3</v>
@@ -15175,7 +15074,7 @@
         <v>147</v>
       </c>
       <c r="G10" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H10" s="156">
         <v>1E-3</v>
@@ -15317,7 +15216,7 @@
         <v>147</v>
       </c>
       <c r="G14" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H14" s="145"/>
       <c r="I14" s="157" t="s">
@@ -15352,7 +15251,7 @@
         <v>147</v>
       </c>
       <c r="G15" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H15" s="145"/>
       <c r="I15" s="157" t="s">
@@ -15389,7 +15288,7 @@
         <v>147</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H16" s="145"/>
       <c r="I16" s="157" t="s">
@@ -15424,7 +15323,7 @@
         <v>149</v>
       </c>
       <c r="G17" s="145" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H17" s="48">
         <f>0.000000001</f>
@@ -15531,7 +15430,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -15707,7 +15606,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" s="13">
         <v>2.0000000000000002E-5</v>
@@ -15767,7 +15666,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16257,7 +16156,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="13">
         <v>130.19999999999999</v>
@@ -16314,9 +16213,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16325,7 +16222,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -16447,8 +16344,8 @@
   <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H7" sqref="H7"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16553,7 +16450,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="59">
         <v>39</v>
@@ -17779,7 +17676,9 @@
   </sheetPr>
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17804,7 +17703,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
